--- a/horse_racing/予想支援xlsx/20221210/20221210_中山11_中京記念出走馬成績一覧.xlsx
+++ b/horse_racing/予想支援xlsx/20221210/20221210_中山11_中京記念出走馬成績一覧.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocal\Mayser\horse_racing\予想支援xlsx\20221210\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25245" windowHeight="11235"/>
   </bookViews>
@@ -3147,7 +3142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -3217,7 +3212,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
